--- a/excel/Map——地图.xlsx
+++ b/excel/Map——地图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -81,13 +81,13 @@
     <t>img/battle/bg/bg1</t>
   </si>
   <si>
-    <t>[[0,-500,1]]</t>
-  </si>
-  <si>
-    <t>[[0,500,1]]</t>
-  </si>
-  <si>
-    <t>[[-148,0,2],[148,0,2],[28,222,2],[-28,-222,2]]</t>
+    <t>[[-500,0,1]]</t>
+  </si>
+  <si>
+    <t>[[500,0,1]]</t>
+  </si>
+  <si>
+    <t>[[0,-148,2],[0,148,2],[222,28,2],[-222,-28,2]]</t>
   </si>
   <si>
     <t>baseBg</t>
@@ -1157,7 +1157,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
@@ -1279,7 +1279,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/excel/Map——地图.xlsx
+++ b/excel/Map——地图.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
-    <sheet name="Base" sheetId="2" r:id="rId2"/>
+    <sheet name="Building" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map!$A$1:$E$10</definedName>
@@ -45,7 +45,7 @@
     <t>enemyBase</t>
   </si>
   <si>
-    <t>mapBase</t>
+    <t>mapBuilding</t>
   </si>
   <si>
     <t>地图id</t>
@@ -90,7 +90,7 @@
     <t>[[0,-148,2],[0,148,2],[222,28,2],[-222,-28,2]]</t>
   </si>
   <si>
-    <t>baseBg</t>
+    <t>buildingBg</t>
   </si>
   <si>
     <t>createSpeed</t>
@@ -102,7 +102,7 @@
     <t>maxCount</t>
   </si>
   <si>
-    <t>baseRadius</t>
+    <t>buildingRadius</t>
   </si>
   <si>
     <t>据点id</t>
@@ -120,10 +120,10 @@
     <t>据点半径</t>
   </si>
   <si>
-    <t>img/battle/base/base1008</t>
-  </si>
-  <si>
-    <t>img/battle/base/base1014</t>
+    <t>img/battle/building/base1008</t>
+  </si>
+  <si>
+    <t>img/battle/building/base1014</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1157,10 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1279,8 +1279,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/excel/Map——地图.xlsx
+++ b/excel/Map——地图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -54,10 +54,10 @@
     <t>背景路径</t>
   </si>
   <si>
-    <t>基地信息</t>
-  </si>
-  <si>
-    <t>敌方基地信息</t>
+    <t>基地信息(x,y,建筑id)</t>
+  </si>
+  <si>
+    <t>敌方基地信息(x,y,建筑id)</t>
   </si>
   <si>
     <t>中立据点信息</t>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>[[0,-148,2],[0,148,2],[222,28,2],[-222,-28,2]]</t>
+  </si>
+  <si>
+    <t>[[-500,100,2],[-500,-100,2]]</t>
+  </si>
+  <si>
+    <t>[[500,100,2],[500,-100,2]]</t>
   </si>
   <si>
     <t>buildingBg</t>
@@ -1155,19 +1161,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="19.5833333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="94.625" style="5" customWidth="1"/>
     <col min="6" max="7" width="30.6666666666667" style="5" customWidth="1"/>
     <col min="8" max="13" width="7.375" style="6" customWidth="1"/>
@@ -1258,6 +1265,23 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1279,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1297,39 +1321,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
@@ -1377,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
         <v>8000</v>
@@ -1397,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5">
         <v>10000</v>
